--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Matriz de Responsabilidad RACI.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Matriz de Responsabilidad RACI.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="VKW00/gc6eMLnynuseqS3gZvObOHtPOihSgMhDsAqus="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="P74qsAg/hpqb/Czlz4zp0I2tLwB21upRzD+BnjvPfd0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="68">
   <si>
     <t>Matriz de Asignación de Responsabilidades (RACI)</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Monitoreo de Riesgos Técnicos</t>
   </si>
   <si>
-    <t>Pruebas de Riesgos</t>
-  </si>
-  <si>
     <t>Integración de Ciencia de datos</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
   </si>
   <si>
     <t>Revisión Final de Riesgos</t>
-  </si>
-  <si>
-    <t>Informe de Riesgos Residuales</t>
   </si>
   <si>
     <t>Instrucciones</t>
@@ -679,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -728,6 +722,12 @@
     </xf>
     <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2042,23 +2042,19 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="17">
+      <c r="A32" s="23">
         <v>27.0</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2082,20 +2078,22 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="17">
+      <c r="A33" s="23">
         <v>28.0</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="F33" s="19"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2118,14 +2116,18 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="17">
-        <v>29.0</v>
+      <c r="A34" s="23">
+        <v>20.0</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="C34" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="E34" s="19" t="s">
         <v>10</v>
       </c>
@@ -2152,14 +2154,18 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="17">
+      <c r="A35" s="23">
         <v>30.0</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="E35" s="19" t="s">
         <v>10</v>
       </c>
@@ -2186,14 +2192,18 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="17">
+      <c r="A36" s="23">
         <v>31.0</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="E36" s="19" t="s">
         <v>10</v>
       </c>
@@ -2220,14 +2230,18 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="17">
+      <c r="A37" s="23">
         <v>32.0</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="E37" s="19" t="s">
         <v>10</v>
       </c>
@@ -2254,18 +2268,24 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="17">
+      <c r="A38" s="23">
         <v>33.0</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="E38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2288,24 +2308,18 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="17">
+      <c r="A39" s="23">
         <v>34.0</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2328,18 +2342,24 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="17">
+      <c r="A40" s="23">
         <v>35.0</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="D40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2362,7 +2382,7 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="17">
+      <c r="A41" s="23">
         <v>36.0</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -2402,7 +2422,7 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="17">
+      <c r="A42" s="23">
         <v>37.0</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -2411,15 +2431,9 @@
       <c r="C42" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2442,7 +2456,7 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="17">
+      <c r="A43" s="23">
         <v>38.0</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -2451,9 +2465,15 @@
       <c r="C43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -2476,24 +2496,12 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="17">
-        <v>39.0</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="A44" s="17"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2516,18 +2524,12 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="17">
-        <v>40.0</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="19"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -29260,34 +29262,6 @@
       <c r="X999" s="4"/>
       <c r="Y999" s="4"/>
       <c r="Z999" s="4"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-      <c r="P1000" s="4"/>
-      <c r="Q1000" s="4"/>
-      <c r="R1000" s="4"/>
-      <c r="S1000" s="4"/>
-      <c r="T1000" s="4"/>
-      <c r="U1000" s="4"/>
-      <c r="V1000" s="4"/>
-      <c r="W1000" s="4"/>
-      <c r="X1000" s="4"/>
-      <c r="Y1000" s="4"/>
-      <c r="Z1000" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -29349,8 +29323,8 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="24.0" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>53</v>
+      <c r="A2" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -29407,8 +29381,8 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>54</v>
+      <c r="A4" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -29437,11 +29411,11 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
-        <v>55</v>
+      <c r="A5" s="27" t="s">
+        <v>53</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>53</v>
+      <c r="B5" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -29469,12 +29443,12 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" s="26" t="str">
+      <c r="A6" s="28" t="str">
         <f>'Recursos x Actividad'!A5</f>
         <v>ID Actividad</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>56</v>
+      <c r="B6" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -29502,12 +29476,12 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" s="26" t="str">
+      <c r="A7" s="28" t="str">
         <f>'Recursos x Actividad'!B5</f>
         <v>Actividad</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>57</v>
+      <c r="B7" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -29535,11 +29509,11 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>58</v>
+      <c r="A8" s="28" t="s">
+        <v>56</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>59</v>
+      <c r="B8" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -29567,11 +29541,11 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>60</v>
+      <c r="A9" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>61</v>
+      <c r="B9" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -29627,8 +29601,8 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="s">
-        <v>62</v>
+      <c r="A11" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -29657,11 +29631,11 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="s">
-        <v>63</v>
+      <c r="A12" s="27" t="s">
+        <v>61</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>64</v>
+      <c r="B12" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -29689,11 +29663,11 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>65</v>
+      <c r="A13" s="28" t="s">
+        <v>63</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>66</v>
+      <c r="B13" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -29721,11 +29695,11 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" ht="56.25" customHeight="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>67</v>
+      <c r="B14" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -29753,11 +29727,11 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>68</v>
+      <c r="B15" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -29785,11 +29759,11 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="31.5" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>69</v>
+      <c r="B16" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
